--- a/Income.xlsx
+++ b/Income.xlsx
@@ -5,16 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cj/Desktop/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05612C96-C5E5-3444-991F-FA6FB8A0C64D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2255C49C-B7C5-9E45-B561-7481ECBA34BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="0" windowWidth="13160" windowHeight="18000" xr2:uid="{8C799839-9EDE-0E48-A195-5767E23E099F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C799839-9EDE-0E48-A195-5767E23E099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$18:$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$18:$B$20</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$18:$A$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$18:$B$20</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$18:$A$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$18:$B$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$18:$A$20</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$18:$B$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$18:$A$20</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$18:$B$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>SCHOOL YEAR</t>
   </si>
@@ -116,7 +128,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,36 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Inconsolata"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -188,23 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,6 +193,3014 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2019-2020</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4250-DF49-AD66-7715BBF275CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4250-DF49-AD66-7715BBF275CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-4250-DF49-AD66-7715BBF275CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Partnerships</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Crowdfunding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>STF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8162.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1309.6500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4250-DF49-AD66-7715BBF275CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="929596031"/>
+        <c:axId val="929517551"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="929596031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929517551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="929517551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929596031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2018-2019</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5B47-574D-80CA-EB246A3A64DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5B47-574D-80CA-EB246A3A64DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5B47-574D-80CA-EB246A3A64DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$23:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Partnerships</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Crowdfunding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ABSA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CACSSF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5508</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;$&quot;#,##0.00">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B47-574D-80CA-EB246A3A64DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="929326047"/>
+        <c:axId val="929486111"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="929326047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929486111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="929486111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929326047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2017-2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E8D2-0544-B7AA-3FF4DF93E53A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E8D2-0544-B7AA-3FF4DF93E53A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E8D2-0544-B7AA-3FF4DF93E53A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$29:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Crowdfunding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ABSA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CACSSF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8D2-0544-B7AA-3FF4DF93E53A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="927760511"/>
+        <c:axId val="927762143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="927760511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="927762143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="927762143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="927760511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="214">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="214">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="214">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>724957</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107193</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65A76E6-79DD-AA4E-8B73-4A071181A351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>730249</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1052160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58BF1CE8-52D1-0949-B44A-9458E1DE1A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>103451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47889</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA44F9AB-F037-5D43-9064-995945B46EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,20 +3500,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB0ECD3-3577-BD42-93EC-2115584A1C39}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="5" customWidth="1"/>
-    <col min="6" max="16" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="3" customWidth="1"/>
+    <col min="6" max="15" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,14 +3526,14 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -565,15 +3546,14 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>2227</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -586,37 +3566,36 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>8162.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1309.6500000000001</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -629,15 +3608,14 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>1354</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -650,15 +3628,14 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2475</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -671,56 +3648,53 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>5508</v>
       </c>
-      <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>5000</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>3500</v>
       </c>
-      <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -733,14 +3707,14 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>4000</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -753,11 +3727,11 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -770,103 +3744,156 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="D17" s="3"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
-    <row r="18" spans="2:6">
-      <c r="D18" s="3"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1"/>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="9"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2227</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="12"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8162.5</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1309.6500000000001</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="2:6">
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3">
+        <f>SUM(E6:E7)</f>
+        <v>3829</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5508</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="1"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="7"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="1"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="11"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="10"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:6">
-      <c r="E31" s="8"/>
-      <c r="F31" s="14"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:6">
-      <c r="E32" s="8"/>
-      <c r="F32" s="14"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="5:6">
-      <c r="E33" s="8"/>
-      <c r="F33" s="15"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="5:6">
-      <c r="E34" s="8"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" s="8"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="F37" s="1"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>